--- a/biology/Zoologie/Dendrolycosa/Dendrolycosa.xlsx
+++ b/biology/Zoologie/Dendrolycosa/Dendrolycosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrolycosa est un genre d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrolycosa est un genre d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Océanie et en Afrique subsaharienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Océanie et en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 29/10/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 29/10/2023) :
 Dendrolycosa bairdi Jäger, 2011
 Dendrolycosa bobbiliensis (Reddy &amp; Patel, 1993)
 Dendrolycosa cruciata (Roewer, 1955)
@@ -590,10 +606,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Doleschall en 1859.
-Campostichommides[2] et Dianpisaura[3] ont été placés en synonymie par Jäger en 2011[4].
+Campostichommides et Dianpisaura ont été placés en synonymie par Jäger en 2011.
 </t>
         </is>
       </c>
@@ -622,7 +640,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Doleschall, 1859 : « Tweede Bijdrage tot de Kenntis der Arachniden van den Indischen Archipel. » Acta Societatis Scientiarum Indo-Neerlandicae, vol. 5, p. 1-60 (texte intégral).</t>
         </is>
